--- a/SeleniumFramework/excel/InputFile.xlsx
+++ b/SeleniumFramework/excel/InputFile.xlsx
@@ -3,34 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A715914\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B205EFC5-7A9E-4A56-9679-AE8AED678C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EE07797D-EE71-4329-8DAF-DB2D0D4DE181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -38,16 +24,22 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>ddd</t>
+    <t>admin</t>
   </si>
   <si>
     <t>admin123</t>
   </si>
   <si>
-    <t>admin1234</t>
+    <t>admin1123</t>
+  </si>
+  <si>
+    <t>admin2123</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>admin2</t>
   </si>
 </sst>
 </file>
@@ -399,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,14 +412,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
